--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.08856300000001</v>
+        <v>118.6930263333333</v>
       </c>
       <c r="H2">
-        <v>279.265689</v>
+        <v>356.079079</v>
       </c>
       <c r="I2">
-        <v>0.1947836339852848</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="J2">
-        <v>0.1947836339852847</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N2">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O2">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P2">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q2">
-        <v>3145.483488696675</v>
+        <v>7543.526109687629</v>
       </c>
       <c r="R2">
-        <v>28309.35139827008</v>
+        <v>67891.73498718865</v>
       </c>
       <c r="S2">
-        <v>0.1930410884204702</v>
+        <v>0.2679232379198144</v>
       </c>
       <c r="T2">
-        <v>0.1930410884204702</v>
+        <v>0.2679232379198144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.08856300000001</v>
+        <v>118.6930263333333</v>
       </c>
       <c r="H3">
-        <v>279.265689</v>
+        <v>356.079079</v>
       </c>
       <c r="I3">
-        <v>0.1947836339852848</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="J3">
-        <v>0.1947836339852847</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.117555</v>
       </c>
       <c r="O3">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P3">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q3">
-        <v>3.647675341155</v>
+        <v>4.650986236871667</v>
       </c>
       <c r="R3">
-        <v>32.829078070395</v>
+        <v>41.858876131845</v>
       </c>
       <c r="S3">
-        <v>0.0002238610441261082</v>
+        <v>0.000165188967862504</v>
       </c>
       <c r="T3">
-        <v>0.0002238610441261082</v>
+        <v>0.000165188967862504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.08856300000001</v>
+        <v>118.6930263333333</v>
       </c>
       <c r="H4">
-        <v>279.265689</v>
+        <v>356.079079</v>
       </c>
       <c r="I4">
-        <v>0.1947836339852848</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="J4">
-        <v>0.1947836339852847</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N4">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O4">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P4">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q4">
-        <v>24.746011967979</v>
+        <v>43.91444152622778</v>
       </c>
       <c r="R4">
-        <v>222.714107711811</v>
+        <v>395.22997373605</v>
       </c>
       <c r="S4">
-        <v>0.00151868452068842</v>
+        <v>0.001559708178120763</v>
       </c>
       <c r="T4">
-        <v>0.00151868452068842</v>
+        <v>0.001559708178120763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>459.817765</v>
       </c>
       <c r="I5">
-        <v>0.320716001877666</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="J5">
-        <v>0.3207160018776659</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N5">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O5">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P5">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q5">
-        <v>5179.115246115709</v>
+        <v>9741.227498444836</v>
       </c>
       <c r="R5">
-        <v>46612.03721504138</v>
+        <v>87671.04748600352</v>
       </c>
       <c r="S5">
-        <v>0.3178468581246585</v>
+        <v>0.3459789460190452</v>
       </c>
       <c r="T5">
-        <v>0.3178468581246585</v>
+        <v>0.3459789460190452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>459.817765</v>
       </c>
       <c r="I6">
-        <v>0.320716001877666</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="J6">
-        <v>0.3207160018776659</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.117555</v>
       </c>
       <c r="O6">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P6">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q6">
-        <v>6.005986373841667</v>
+        <v>6.005986373841668</v>
       </c>
       <c r="R6">
         <v>54.053877364575</v>
       </c>
       <c r="S6">
-        <v>0.0003685926665363945</v>
+        <v>0.0002133144755892649</v>
       </c>
       <c r="T6">
-        <v>0.0003685926665363945</v>
+        <v>0.0002133144755892649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>459.817765</v>
       </c>
       <c r="I7">
-        <v>0.320716001877666</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="J7">
-        <v>0.3207160018776659</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N7">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O7">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P7">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q7">
-        <v>40.74491197441501</v>
+        <v>56.70830314019445</v>
       </c>
       <c r="R7">
-        <v>366.704207769735</v>
+        <v>510.37472826175</v>
       </c>
       <c r="S7">
-        <v>0.002500551086471083</v>
+        <v>0.002014107457618175</v>
       </c>
       <c r="T7">
-        <v>0.002500551086471083</v>
+        <v>0.002014107457618175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>133.9846036666667</v>
+        <v>116.0670876666667</v>
       </c>
       <c r="H8">
-        <v>401.953811</v>
+        <v>348.201263</v>
       </c>
       <c r="I8">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="J8">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N8">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O8">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P8">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q8">
-        <v>4527.369904432491</v>
+        <v>7376.634780800221</v>
       </c>
       <c r="R8">
-        <v>40746.32913989243</v>
+        <v>66389.71302720199</v>
       </c>
       <c r="S8">
-        <v>0.2778486732403276</v>
+        <v>0.2619957625500623</v>
       </c>
       <c r="T8">
-        <v>0.2778486732403276</v>
+        <v>0.2619957625500623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>133.9846036666667</v>
+        <v>116.0670876666667</v>
       </c>
       <c r="H9">
-        <v>401.953811</v>
+        <v>348.201263</v>
       </c>
       <c r="I9">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="J9">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.117555</v>
       </c>
       <c r="O9">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P9">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q9">
-        <v>5.250186694678333</v>
+        <v>4.548088830218334</v>
       </c>
       <c r="R9">
-        <v>47.251680252105</v>
+        <v>40.93279947196501</v>
       </c>
       <c r="S9">
-        <v>0.0003222085754363056</v>
+        <v>0.0001615343631109266</v>
       </c>
       <c r="T9">
-        <v>0.0003222085754363056</v>
+        <v>0.0001615343631109266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>133.9846036666667</v>
+        <v>116.0670876666667</v>
       </c>
       <c r="H10">
-        <v>401.953811</v>
+        <v>348.201263</v>
       </c>
       <c r="I10">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="J10">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N10">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O10">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P10">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q10">
-        <v>35.617529146521</v>
+        <v>42.94288798520556</v>
       </c>
       <c r="R10">
-        <v>320.557762318689</v>
+        <v>386.48599186685</v>
       </c>
       <c r="S10">
-        <v>0.002185879092355734</v>
+        <v>0.001525201534047663</v>
       </c>
       <c r="T10">
-        <v>0.002185879092355734</v>
+        <v>0.001525201534047663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.56176266666667</v>
+        <v>52.14473966666667</v>
       </c>
       <c r="H11">
-        <v>292.685288</v>
+        <v>156.434219</v>
       </c>
       <c r="I11">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="J11">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>33.790225</v>
+        <v>63.55492266666666</v>
       </c>
       <c r="N11">
-        <v>101.370675</v>
+        <v>190.664768</v>
       </c>
       <c r="O11">
-        <v>0.9910539426277148</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="P11">
-        <v>0.991053942627715</v>
+        <v>0.9936031556622397</v>
       </c>
       <c r="Q11">
-        <v>3296.633911903267</v>
+        <v>3314.054896988466</v>
       </c>
       <c r="R11">
-        <v>29669.7052071294</v>
+        <v>29826.49407289619</v>
       </c>
       <c r="S11">
-        <v>0.2023173228422586</v>
+        <v>0.1177052091733178</v>
       </c>
       <c r="T11">
-        <v>0.2023173228422586</v>
+        <v>0.1177052091733178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.56176266666667</v>
+        <v>52.14473966666667</v>
       </c>
       <c r="H12">
-        <v>292.685288</v>
+        <v>156.434219</v>
       </c>
       <c r="I12">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="J12">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.117555</v>
       </c>
       <c r="O12">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="P12">
-        <v>0.001149280560927517</v>
+        <v>0.000612609346703606</v>
       </c>
       <c r="Q12">
-        <v>3.822957670093333</v>
+        <v>2.043291623838334</v>
       </c>
       <c r="R12">
-        <v>34.40661903084</v>
+        <v>18.389624614545</v>
       </c>
       <c r="S12">
-        <v>0.0002346182748287086</v>
+        <v>7.257154014091044E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002346182748287087</v>
+        <v>7.257154014091044E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.56176266666667</v>
+        <v>52.14473966666667</v>
       </c>
       <c r="H13">
-        <v>292.685288</v>
+        <v>156.434219</v>
       </c>
       <c r="I13">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="J13">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.265833</v>
+        <v>0.3699833333333333</v>
       </c>
       <c r="N13">
-        <v>0.7974990000000001</v>
+        <v>1.10995</v>
       </c>
       <c r="O13">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="P13">
-        <v>0.007796776811357526</v>
+        <v>0.005784234991056675</v>
       </c>
       <c r="Q13">
-        <v>25.93513605496801</v>
+        <v>19.29268459767222</v>
       </c>
       <c r="R13">
-        <v>233.416224494712</v>
+        <v>173.63416137905</v>
       </c>
       <c r="S13">
-        <v>0.00159166211184229</v>
+        <v>0.0006852178212700739</v>
       </c>
       <c r="T13">
-        <v>0.00159166211184229</v>
+        <v>0.000685217821270074</v>
       </c>
     </row>
   </sheetData>
